--- a/Data/Q/StageCorrection.xlsx
+++ b/Data/Q/StageCorrection.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LBJ" sheetId="1" r:id="rId1"/>
+    <sheet name="DAM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>z</t>
   </si>
@@ -46,8 +47,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0000"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,8 +81,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,13 +365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -482,4 +483,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>41394.59375</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1415</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41430.5625</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1330</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>41629.53125</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1245</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41639.489583333336</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1145</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>41727.666666666664</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41807.145833333336</v>
+      </c>
+      <c r="D4" s="1">
+        <v>330</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>41807.15625</v>
+      </c>
+      <c r="B5" s="1">
+        <v>345</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41899.208333333336</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>41899.21875</v>
+      </c>
+      <c r="B6" s="1">
+        <v>515</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41903.635416666664</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1515</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Q/StageCorrection.xlsx
+++ b/Data/Q/StageCorrection.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LBJ" sheetId="1" r:id="rId1"/>
     <sheet name="DAM" sheetId="2" r:id="rId2"/>
+    <sheet name="LBJ-old" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>z</t>
   </si>
@@ -41,19 +42,37 @@
   <si>
     <t>T2_time</t>
   </si>
+  <si>
+    <t>hPa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,14 +94,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,28 +404,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -393,90 +434,449 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>41002</v>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>40927</v>
       </c>
       <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="6">
+        <v>40933</v>
+      </c>
+      <c r="D2" s="1">
+        <v>430</v>
+      </c>
+      <c r="E2" s="3">
+        <f>F2*0.102*100</f>
+        <v>0.20399999999999996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>40945</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C3" s="6">
+        <v>40962</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E13" si="0">F3*0.102*100</f>
+        <v>1.1219999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>40973</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1515</v>
+      </c>
+      <c r="C4" s="6">
+        <v>40984</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>41008</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>41050.708333333336</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C5" s="6">
+        <v>41050</v>
+      </c>
+      <c r="D5" s="1">
         <v>1700</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>41154.333333333336</v>
-      </c>
-      <c r="B3" s="1">
-        <v>800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>41193.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>41430.541666666664</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>41050</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="6">
+        <v>41051</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="3">
+        <f>E6/102</f>
+        <v>1.7647058823529412E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>41117</v>
+      </c>
+      <c r="B7" s="1">
+        <v>245</v>
+      </c>
+      <c r="C7" s="6">
+        <v>41130</v>
+      </c>
+      <c r="D7" s="1">
+        <v>415</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>41130</v>
+      </c>
+      <c r="B8" s="1">
+        <v>430</v>
+      </c>
+      <c r="C8" s="6">
+        <v>41151</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3259999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>41153</v>
+      </c>
+      <c r="B9" s="8">
         <v>1300</v>
       </c>
-      <c r="C4" s="2">
-        <v>41542.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C9" s="7">
+        <v>41192</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8759999999999994</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>41316</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="6">
+        <v>41332</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1145</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.61199999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>41332</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C11" s="6">
+        <v>40971</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1930</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>41338</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>41361</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.02</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>41361</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41380</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1430</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.754</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>41380</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1445</v>
+      </c>
+      <c r="C14" s="6">
+        <v>41430</v>
+      </c>
+      <c r="D14" s="1">
+        <v>915</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F17" si="1">E14/102</f>
+        <v>-4.4117647058823532E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>41430</v>
+      </c>
+      <c r="B15" s="1">
+        <v>930</v>
+      </c>
+      <c r="C15" s="6">
+        <v>41450</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-3</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>41496</v>
+      </c>
+      <c r="B16" s="12">
+        <v>545</v>
+      </c>
+      <c r="C16" s="11">
+        <v>41502</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1945</v>
+      </c>
+      <c r="E16" s="15">
+        <f>F16*0.102*100</f>
+        <v>2.04</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>41502</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>41543</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>41680</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2">
-        <v>41849.572916666664</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1345</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>41849.583333333336</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>41977.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>41684</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1615</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E22" si="2">F18*0.102*100</f>
+        <v>3.6719999999999997</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>41684</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1630</v>
+      </c>
+      <c r="C19" s="6">
+        <v>41849</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>41849</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C20" s="6">
+        <v>41907</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4260000000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>41913</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C21" s="6">
+        <v>41977</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3859999999999992</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>41977</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C22" s="6">
+        <v>41992</v>
+      </c>
+      <c r="D22" s="1">
+        <v>230</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -607,4 +1007,479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40927</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40933</v>
+      </c>
+      <c r="D2" s="1">
+        <v>430</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>40945</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40962</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>40973</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1515</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40984</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>41008</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41050</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>41050</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41050</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>41117</v>
+      </c>
+      <c r="B7" s="1">
+        <v>245</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41130</v>
+      </c>
+      <c r="D7" s="1">
+        <v>415</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>41130</v>
+      </c>
+      <c r="B8" s="1">
+        <v>430</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41151</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1900</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41192</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>41316</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41332</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1145</v>
+      </c>
+      <c r="F10">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>41332</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40971</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1930</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>41338</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41361</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1030</v>
+      </c>
+      <c r="F12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>41361</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41380</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1430</v>
+      </c>
+      <c r="F13">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>41380</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1430</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41430</v>
+      </c>
+      <c r="D14" s="1">
+        <v>915</v>
+      </c>
+      <c r="E14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>41430</v>
+      </c>
+      <c r="B15" s="1">
+        <v>930</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41450</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>41496</v>
+      </c>
+      <c r="B16" s="1">
+        <v>545</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41543</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41684</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1615</v>
+      </c>
+      <c r="F17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1630</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41849</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>41849</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41907</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F19">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41977</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F20">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>41977</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41992</v>
+      </c>
+      <c r="D21" s="1">
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>41002</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>41050.708333333336</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1700</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>41154.333333333336</v>
+      </c>
+      <c r="B25" s="1">
+        <v>800</v>
+      </c>
+      <c r="C25" s="2">
+        <v>41193.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>41361</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>41430.541666666664</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C27" s="2">
+        <v>41542.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41849.572916666664</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1345</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>41849.583333333336</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41977.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Q/StageCorrection.xlsx
+++ b/Data/Q/StageCorrection.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LBJ" sheetId="1" r:id="rId1"/>
     <sheet name="DAM" sheetId="2" r:id="rId2"/>
-    <sheet name="LBJ-old" sheetId="3" r:id="rId3"/>
+    <sheet name="DAM-old" sheetId="4" r:id="rId3"/>
+    <sheet name="LBJ-old" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>z</t>
   </si>
@@ -50,10 +51,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -107,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -124,6 +126,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,10 +890,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>40948</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="16">
+        <v>40994</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>40994</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1515</v>
+      </c>
+      <c r="C3" s="16">
+        <v>41138</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>41330</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>41341</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1315</v>
+      </c>
+      <c r="E4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>41341</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1330</v>
+      </c>
+      <c r="C5" s="16">
+        <v>41361</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E5">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>41361</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1045</v>
+      </c>
+      <c r="C6" s="16">
+        <v>41379</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>41379</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1615</v>
+      </c>
+      <c r="C7" s="16">
+        <v>41394</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E7">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>41394</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1415</v>
+      </c>
+      <c r="C8" s="16">
+        <v>41429</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1515</v>
+      </c>
+      <c r="E8">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>41429</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1530</v>
+      </c>
+      <c r="C9" s="16">
+        <v>41451</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>41451</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1430</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42014</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1115</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +1099,7 @@
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -917,89 +1115,100 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>40948</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>41394.59375</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B16" s="1">
         <v>1415</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C16" s="2">
         <v>41430.5625</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D16" s="1">
         <v>1330</v>
       </c>
-      <c r="E2">
+      <c r="E16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>41629.53125</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B17" s="1">
         <v>1245</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C17" s="2">
         <v>41639.489583333336</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D17" s="1">
         <v>1145</v>
       </c>
-      <c r="E3">
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>41727.666666666664</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B18" s="1">
         <v>1600</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C18" s="2">
         <v>41807.145833333336</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D18" s="1">
         <v>330</v>
       </c>
-      <c r="E4">
+      <c r="E18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>41807.15625</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B19" s="1">
         <v>345</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C19" s="2">
         <v>41899.208333333336</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D19" s="1">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>41899.21875</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B20" s="1">
         <v>515</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C20" s="2">
         <v>41903.635416666664</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D20" s="1">
         <v>1515</v>
       </c>
-      <c r="E6">
+      <c r="E20">
         <v>1.5</v>
       </c>
     </row>
@@ -1009,11 +1218,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Data/Q/StageCorrection.xlsx
+++ b/Data/Q/StageCorrection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LBJ" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,7 +126,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,184 +701,226 @@
         <v>1445</v>
       </c>
       <c r="C14" s="6">
-        <v>41430</v>
+        <v>41387</v>
       </c>
       <c r="D14" s="1">
-        <v>915</v>
+        <v>1515</v>
       </c>
       <c r="E14" s="5">
         <v>-4.5</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:F17" si="1">E14/102</f>
+        <f t="shared" ref="F14:F19" si="1">E14/102</f>
         <v>-4.4117647058823532E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>41430</v>
+        <v>41387</v>
       </c>
       <c r="B15" s="1">
-        <v>930</v>
+        <v>1530</v>
       </c>
       <c r="C15" s="6">
-        <v>41450</v>
+        <v>41405</v>
       </c>
       <c r="D15" s="1">
-        <v>1300</v>
+        <v>1515</v>
       </c>
       <c r="E15" s="5">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>-2.9411764705882353E-2</v>
+        <v>-6.8627450980392163E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
+        <v>41405</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1530</v>
+      </c>
+      <c r="C16" s="6">
+        <v>41430</v>
+      </c>
+      <c r="D16" s="1">
+        <v>915</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.4117647058823532E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>41430</v>
+      </c>
+      <c r="B17" s="1">
+        <v>930</v>
+      </c>
+      <c r="C17" s="6">
+        <v>41450</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>41496</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B18" s="12">
         <v>545</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <v>41502</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D18" s="12">
         <v>1945</v>
       </c>
-      <c r="E16" s="15">
-        <f>F16*0.102*100</f>
+      <c r="E18" s="15">
+        <f>F18*0.102*100</f>
         <v>2.04</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F18" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>41502</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B19" s="8">
         <v>2000</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C19" s="7">
         <v>41543</v>
       </c>
-      <c r="D17" s="8">
-        <v>1200</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D19" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="14">
         <v>4</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>41680</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>41684</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="1">
         <v>1615</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" ref="E18:E22" si="2">F18*0.102*100</f>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20:E24" si="2">F20*0.102*100</f>
         <v>3.6719999999999997</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <v>0.36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>41684</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>1630</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>41849</v>
       </c>
-      <c r="D19" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D21" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>3.0599999999999996</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F21" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>41849</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>1215</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C22" s="6">
         <v>41907</v>
       </c>
-      <c r="D20" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D22" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>6.4260000000000002</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F22" s="4">
         <v>0.63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>41913</v>
       </c>
-      <c r="B21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B23" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C23" s="6">
         <v>41977</v>
       </c>
-      <c r="D21" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D23" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>4.3859999999999992</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F23" s="4">
         <v>0.43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>41977</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>1215</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>41992</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D24" s="1">
         <v>230</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>3.0599999999999996</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F24" s="4">
         <v>0.3</v>
       </c>
     </row>
@@ -892,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
